--- a/nodes_source_analyses/industry/industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,8 +42,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -182,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -652,6 +657,10 @@
   <si>
     <t>industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -666,7 +675,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -861,11 +870,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1509,7 +1513,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1742,7 +1746,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1774,20 +1778,20 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1807,13 +1811,13 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1886,8 +1890,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1895,8 +1899,8 @@
     <xf numFmtId="167" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1904,7 +1908,7 @@
     <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1919,50 +1923,50 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2421,77 +2425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2781,7 +2715,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2894,7 +2828,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3285,50 +3219,50 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3337,29 +3271,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="77"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="78" t="s">
         <v>27</v>
@@ -3368,33 +3302,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="78"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="78"/>
       <c r="C13" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="78"/>
       <c r="C14" s="79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="78" t="s">
         <v>32</v>
@@ -3403,49 +3337,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="78"/>
       <c r="C17" s="83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="78"/>
       <c r="C18" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="78"/>
       <c r="C19" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="86"/>
       <c r="C21" s="88" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="86"/>
       <c r="C22" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="90" t="s">
         <v>40</v>
@@ -3454,44 +3388,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="185" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C2" s="186"/>
       <c r="D2" s="186"/>
@@ -3499,7 +3430,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="188"/>
       <c r="C3" s="189"/>
       <c r="D3" s="189"/>
@@ -3507,7 +3438,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="188"/>
       <c r="C4" s="189"/>
       <c r="D4" s="189"/>
@@ -3515,7 +3446,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="191"/>
       <c r="C5" s="192"/>
       <c r="D5" s="192"/>
@@ -3523,17 +3454,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3544,7 +3475,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3565,7 +3496,7 @@
       </c>
       <c r="J9" s="93"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3576,7 +3507,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3589,11 +3520,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>2</v>
@@ -3604,23 +3535,23 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="114"/>
       <c r="B13" s="115"/>
       <c r="C13" s="184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="107">
         <f>'Research data'!H8</f>
@@ -3628,20 +3559,20 @@
       </c>
       <c r="F13" s="110"/>
       <c r="G13" s="184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="110"/>
       <c r="I13" s="113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="117"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="114"/>
       <c r="B14" s="115"/>
       <c r="C14" s="152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="107">
@@ -3652,15 +3583,15 @@
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
       <c r="I14" s="154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J14" s="117"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="115"/>
       <c r="C15" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2</v>
@@ -3673,14 +3604,14 @@
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
       <c r="I15" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="117"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115"/>
       <c r="C16" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -3694,7 +3625,7 @@
       <c r="I16" s="113"/>
       <c r="J16" s="117"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -3705,7 +3636,7 @@
       <c r="I17" s="36"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
       <c r="C18" s="13" t="s">
         <v>43</v>
@@ -3718,7 +3649,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="94"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="39" t="s">
         <v>22</v>
@@ -3736,17 +3667,17 @@
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="41">
         <f>'Research data'!H19</f>
@@ -3754,21 +3685,21 @@
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="94"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="146"/>
       <c r="C21" s="155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="107">
         <f>'Research data'!H21</f>
@@ -3776,18 +3707,18 @@
       </c>
       <c r="F21" s="149"/>
       <c r="G21" s="147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="149"/>
       <c r="I21" s="150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="151"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="146"/>
       <c r="C22" s="155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="148"/>
       <c r="E22" s="107">
@@ -3796,18 +3727,18 @@
       </c>
       <c r="F22" s="149"/>
       <c r="G22" s="155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22" s="149"/>
       <c r="I22" s="164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" s="151"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="148"/>
       <c r="E23" s="107">
@@ -3816,18 +3747,18 @@
       </c>
       <c r="F23" s="149"/>
       <c r="G23" s="155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H23" s="149"/>
       <c r="I23" s="164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" s="151"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="148"/>
       <c r="E24" s="107">
@@ -3836,18 +3767,18 @@
       </c>
       <c r="F24" s="149"/>
       <c r="G24" s="155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H24" s="149"/>
       <c r="I24" s="150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="151"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="146"/>
       <c r="C25" s="155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="148"/>
       <c r="E25" s="107">
@@ -3856,42 +3787,42 @@
       </c>
       <c r="F25" s="149"/>
       <c r="G25" s="156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H25" s="149"/>
       <c r="I25" s="164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J25" s="151"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="114"/>
       <c r="B26" s="115"/>
       <c r="C26" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>86</v>
       </c>
       <c r="E26" s="118">
         <v>0.1</v>
       </c>
       <c r="F26" s="110"/>
       <c r="G26" s="110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="110"/>
       <c r="I26" s="113"/>
       <c r="J26" s="117"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="114"/>
       <c r="B27" s="115"/>
       <c r="C27" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="E27" s="118">
         <v>1</v>
@@ -3902,7 +3833,7 @@
       <c r="I27" s="113"/>
       <c r="J27" s="117"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="114"/>
       <c r="B28" s="115"/>
       <c r="C28" s="110"/>
@@ -3914,7 +3845,7 @@
       <c r="I28" s="119"/>
       <c r="J28" s="117"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="114"/>
       <c r="B29" s="115"/>
       <c r="C29" s="13" t="s">
@@ -3927,7 +3858,7 @@
       <c r="I29" s="119"/>
       <c r="J29" s="117"/>
     </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114"/>
       <c r="B30" s="115"/>
       <c r="C30" s="110" t="s">
@@ -3942,19 +3873,19 @@
       </c>
       <c r="F30" s="110"/>
       <c r="G30" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" s="110"/>
       <c r="I30" s="113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" s="117"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="115"/>
       <c r="C31" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>1</v>
@@ -3965,22 +3896,22 @@
       </c>
       <c r="F31" s="110"/>
       <c r="G31" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" s="117"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114"/>
       <c r="B32" s="115"/>
       <c r="C32" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="E32" s="138">
         <f>'Research data'!H31</f>
@@ -3988,15 +3919,15 @@
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" s="117"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="114"/>
       <c r="B33" s="115"/>
       <c r="C33" s="110" t="s">
@@ -4014,7 +3945,7 @@
       <c r="I33" s="113"/>
       <c r="J33" s="117"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
       <c r="B34" s="122"/>
       <c r="C34" s="123"/>
@@ -4026,7 +3957,7 @@
       <c r="I34" s="123"/>
       <c r="J34" s="124"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="114"/>
       <c r="B35" s="114"/>
       <c r="C35" s="114"/>
@@ -4038,7 +3969,7 @@
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="114"/>
       <c r="B36" s="114"/>
       <c r="C36" s="114"/>
@@ -4050,7 +3981,7 @@
       <c r="I36" s="114"/>
       <c r="J36" s="114"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="114"/>
       <c r="B37" s="114"/>
       <c r="C37" s="114"/>
@@ -4062,7 +3993,7 @@
       <c r="I37" s="114"/>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="114"/>
       <c r="B38" s="114"/>
       <c r="E38" s="114"/>
@@ -4072,7 +4003,7 @@
       <c r="I38" s="114"/>
       <c r="J38" s="114"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="114"/>
       <c r="B39" s="114"/>
       <c r="C39" s="114"/>
@@ -4084,7 +4015,7 @@
       <c r="I39" s="114"/>
       <c r="J39" s="114"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="114"/>
       <c r="B40" s="114"/>
       <c r="C40" s="114"/>
@@ -4096,7 +4027,7 @@
       <c r="I40" s="114"/>
       <c r="J40" s="114"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="114"/>
       <c r="B41" s="114"/>
       <c r="C41" s="114"/>
@@ -4108,7 +4039,7 @@
       <c r="I41" s="114"/>
       <c r="J41" s="114"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="114"/>
       <c r="B42" s="114"/>
       <c r="C42" s="114"/>
@@ -4120,10 +4051,10 @@
       <c r="I42" s="114"/>
       <c r="J42" s="114"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="114"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="114"/>
     </row>
   </sheetData>
@@ -4132,43 +4063,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4183,34 +4077,34 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="42" customWidth="1"/>
-    <col min="17" max="17" width="3.125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="42" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="42" customWidth="1"/>
     <col min="19" max="19" width="11" style="42" customWidth="1"/>
-    <col min="20" max="20" width="2.5" style="42" customWidth="1"/>
-    <col min="21" max="21" width="22.375" style="42" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="42"/>
+    <col min="20" max="20" width="2.42578125" style="42" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="42" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="16" thickBot="1"/>
-    <row r="3" spans="1:21">
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4232,7 +4126,7 @@
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" s="26" customFormat="1">
+    <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="91" t="s">
         <v>19</v>
@@ -4244,30 +4138,30 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4283,7 +4177,7 @@
       <c r="N5" s="49"/>
       <c r="R5" s="55"/>
     </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4304,10 +4198,10 @@
       <c r="Q6" s="46"/>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:21" ht="16" thickBot="1">
+    <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -4333,15 +4227,15 @@
       <c r="Q7" s="46"/>
       <c r="R7" s="53"/>
     </row>
-    <row r="8" spans="1:21" ht="16" thickBot="1">
+    <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="92"/>
       <c r="H8" s="106">
@@ -4362,11 +4256,11 @@
       <c r="Q8" s="46"/>
       <c r="R8" s="109"/>
     </row>
-    <row r="9" spans="1:21" ht="16" thickBot="1">
+    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="114"/>
       <c r="B9" s="115"/>
       <c r="C9" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -4393,16 +4287,16 @@
       <c r="R9" s="153"/>
       <c r="S9" s="114"/>
     </row>
-    <row r="10" spans="1:21" ht="16" thickBot="1">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="114"/>
       <c r="B10" s="115"/>
       <c r="C10" s="152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="112"/>
       <c r="E10" s="112"/>
       <c r="F10" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="116">
         <f>P10</f>
@@ -4423,11 +4317,11 @@
       <c r="R10" s="153"/>
       <c r="S10" s="114"/>
     </row>
-    <row r="11" spans="1:21" ht="16" thickBot="1">
+    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="114"/>
       <c r="B11" s="115"/>
       <c r="C11" s="141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -4449,11 +4343,11 @@
       <c r="R11" s="153"/>
       <c r="S11" s="114"/>
     </row>
-    <row r="12" spans="1:21" ht="16" thickBot="1">
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="114"/>
       <c r="B12" s="115"/>
       <c r="C12" s="141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -4475,11 +4369,11 @@
       <c r="R12" s="153"/>
       <c r="S12" s="114"/>
     </row>
-    <row r="13" spans="1:21" ht="16" thickBot="1">
+    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="114"/>
       <c r="B13" s="115"/>
       <c r="C13" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -4494,7 +4388,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="114"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
       <c r="I14" s="110"/>
       <c r="J14" s="114"/>
@@ -4507,7 +4401,7 @@
       <c r="Q14" s="46"/>
       <c r="R14" s="153"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="114"/>
       <c r="B15" s="115"/>
       <c r="C15" s="34"/>
@@ -4521,7 +4415,7 @@
       <c r="Q15" s="46"/>
       <c r="R15" s="55"/>
     </row>
-    <row r="16" spans="1:21" ht="16" thickBot="1">
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="114"/>
       <c r="B16" s="115"/>
       <c r="C16" s="12" t="s">
@@ -4537,11 +4431,11 @@
       <c r="Q16" s="48"/>
       <c r="R16" s="109"/>
     </row>
-    <row r="17" spans="1:18" ht="16" thickBot="1">
+    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="114"/>
       <c r="B17" s="115"/>
       <c r="C17" s="131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
@@ -4562,14 +4456,14 @@
       <c r="Q17" s="48"/>
       <c r="R17" s="109"/>
     </row>
-    <row r="18" spans="1:18" ht="16" thickBot="1">
+    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="114"/>
       <c r="B18" s="115"/>
       <c r="C18" s="131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="127">
         <f>N18</f>
@@ -4583,14 +4477,14 @@
         <v>2648341.5300546447</v>
       </c>
       <c r="R18" s="136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="16" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114"/>
       <c r="B19" s="115"/>
       <c r="C19" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="133" t="s">
         <v>20</v>
@@ -4607,17 +4501,17 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="R19" s="136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="16" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114"/>
       <c r="B20" s="115"/>
       <c r="C20" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="143">
         <f>N20</f>
@@ -4631,17 +4525,17 @@
         <v>2.120718247541034E-4</v>
       </c>
       <c r="R20" s="136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114"/>
       <c r="B21" s="115"/>
       <c r="C21" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="142">
         <f>Notes!E241</f>
@@ -4655,14 +4549,14 @@
         <v>277.30273224043714</v>
       </c>
       <c r="R21" s="136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="158"/>
       <c r="B22" s="159"/>
       <c r="C22" s="157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="158"/>
       <c r="E22" s="158"/>
@@ -4684,14 +4578,14 @@
       <c r="O22" s="162"/>
       <c r="Q22" s="158"/>
       <c r="R22" s="162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="158"/>
       <c r="B23" s="159"/>
       <c r="C23" s="157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
@@ -4714,14 +4608,14 @@
       <c r="O23" s="158"/>
       <c r="Q23" s="158"/>
       <c r="R23" s="162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="16" thickBot="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="114"/>
       <c r="B24" s="115"/>
       <c r="C24" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="157" t="s">
         <v>20</v>
@@ -4741,16 +4635,16 @@
       </c>
       <c r="R24" s="136"/>
     </row>
-    <row r="25" spans="1:18" ht="16" thickBot="1">
+    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="158"/>
       <c r="B25" s="159"/>
       <c r="C25" s="163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
       <c r="F25" s="157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="158"/>
       <c r="H25" s="160">
@@ -4767,17 +4661,17 @@
       <c r="O25" s="158"/>
       <c r="Q25" s="158"/>
       <c r="R25" s="153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R26" s="53"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="45"/>
       <c r="R27" s="109"/>
     </row>
-    <row r="28" spans="1:18" ht="16" thickBot="1">
+    <row r="28" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114"/>
       <c r="B28" s="115"/>
       <c r="C28" s="34" t="s">
@@ -4796,7 +4690,7 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="153"/>
     </row>
-    <row r="29" spans="1:18" ht="16" thickBot="1">
+    <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="114"/>
       <c r="B29" s="115"/>
       <c r="C29" s="130" t="s">
@@ -4823,11 +4717,11 @@
       <c r="Q29" s="46"/>
       <c r="R29" s="153"/>
     </row>
-    <row r="30" spans="1:18" ht="16" thickBot="1">
+    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114"/>
       <c r="B30" s="115"/>
       <c r="C30" s="112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="126" t="s">
         <v>1</v>
@@ -4850,14 +4744,14 @@
       <c r="Q30" s="46"/>
       <c r="R30" s="153"/>
     </row>
-    <row r="31" spans="1:18" ht="16" thickBot="1">
+    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="115"/>
       <c r="C31" s="125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="126" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="137">
         <f>N31</f>
@@ -4876,10 +4770,10 @@
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
       <c r="R31" s="136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="16" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114"/>
       <c r="B32" s="115"/>
       <c r="C32" s="104" t="s">
@@ -4891,55 +4785,55 @@
       </c>
       <c r="R32" s="109"/>
     </row>
-    <row r="33" spans="1:18" ht="16" thickBot="1">
+    <row r="33" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="114"/>
       <c r="B33" s="115"/>
       <c r="C33" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H33" s="118">
         <v>442800</v>
       </c>
       <c r="R33" s="153"/>
     </row>
-    <row r="34" spans="1:18" ht="16" thickBot="1">
+    <row r="34" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
       <c r="B34" s="115"/>
       <c r="C34" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="118">
         <v>0</v>
       </c>
       <c r="R34" s="153"/>
     </row>
-    <row r="35" spans="1:18" ht="16" thickBot="1">
+    <row r="35" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="118">
         <v>2835000</v>
       </c>
       <c r="R35" s="153"/>
     </row>
-    <row r="36" spans="1:18" ht="16" thickBot="1">
+    <row r="36" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="114"/>
       <c r="B36" s="115"/>
       <c r="C36" s="141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36" s="118">
         <v>534600</v>
       </c>
       <c r="R36" s="153"/>
     </row>
-    <row r="37" spans="1:18" ht="16" thickBot="1">
+    <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="114"/>
       <c r="B37" s="115"/>
       <c r="C37" s="141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="118">
         <v>354600</v>
@@ -4949,11 +4843,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4966,22 +4855,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="57" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="57" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="62" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="57"/>
+    <col min="1" max="1" width="3.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -4992,7 +4881,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5005,7 +4894,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="56"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5016,7 +4905,7 @@
       <c r="I4" s="64"/>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="65"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5031,19 +4920,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5054,16 +4943,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="56">
         <v>2015</v>
@@ -5075,16 +4964,16 @@
         <v>42328</v>
       </c>
       <c r="I7" s="100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="60"/>
       <c r="C8" s="114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -5094,10 +4983,10 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
       <c r="C9" s="134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -5106,7 +4995,7 @@
       <c r="H9" s="103"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
       <c r="C10" s="66"/>
       <c r="D10" s="56"/>
@@ -5117,16 +5006,16 @@
       <c r="I10" s="100"/>
       <c r="J10" s="99"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
       <c r="C11" s="134" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="56">
         <v>2014</v>
@@ -5138,16 +5027,16 @@
         <v>42328</v>
       </c>
       <c r="I11" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
       <c r="C12" s="135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -5157,7 +5046,7 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="60"/>
       <c r="C13" s="135"/>
       <c r="D13" s="56"/>
@@ -5168,13 +5057,13 @@
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="60"/>
       <c r="C14" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="108"/>
       <c r="F14" s="56">
@@ -5187,13 +5076,13 @@
         <v>42328</v>
       </c>
       <c r="I14" s="119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
       <c r="E15" s="108"/>
       <c r="F15" s="56"/>
@@ -5202,16 +5091,16 @@
       <c r="I15" s="119"/>
       <c r="J15" s="98"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="60"/>
       <c r="C16" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="56">
         <v>2015</v>
@@ -5223,34 +5112,34 @@
         <v>42328</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="60"/>
       <c r="C17" s="114" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="60"/>
       <c r="C18" s="114" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="60"/>
       <c r="C19" s="134" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="60"/>
       <c r="C20" s="135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -5260,10 +5149,10 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
       <c r="C21" s="134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5273,7 +5162,7 @@
       <c r="I21" s="100"/>
       <c r="J21" s="56"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="60"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
@@ -5284,14 +5173,9 @@
       <c r="J22" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5304,23 +5188,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="67" customWidth="1"/>
     <col min="4" max="4" width="4" style="67" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="67" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="67"/>
-    <col min="14" max="14" width="15.75" style="67" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="67"/>
-    <col min="16" max="16" width="54.75" style="67" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="67"/>
+    <col min="5" max="5" width="13.140625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="67" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="67"/>
+    <col min="14" max="14" width="15.7109375" style="67" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="67"/>
+    <col min="16" max="16" width="54.7109375" style="67" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -5335,14 +5219,14 @@
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="71"/>
       <c r="B3" s="96"/>
       <c r="C3" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="75" t="s">
         <v>25</v>
@@ -5357,7 +5241,7 @@
       <c r="M3" s="72"/>
       <c r="N3" s="97"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -5373,7 +5257,7 @@
       <c r="N4" s="74"/>
       <c r="O4" s="74"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
@@ -5388,7 +5272,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="73"/>
       <c r="D6" s="74"/>
       <c r="G6" s="74"/>
@@ -5401,7 +5285,7 @@
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="73"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
@@ -5416,7 +5300,7 @@
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
@@ -5431,7 +5315,7 @@
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -5447,7 +5331,7 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -5463,7 +5347,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="74"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
@@ -5479,7 +5363,7 @@
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
@@ -5495,7 +5379,7 @@
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
@@ -5511,7 +5395,7 @@
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
@@ -5527,7 +5411,7 @@
       <c r="N14" s="74"/>
       <c r="O14" s="74"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
       <c r="D15" s="74"/>
@@ -5543,7 +5427,7 @@
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="74"/>
       <c r="D16" s="74"/>
@@ -5559,10 +5443,10 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="74"/>
       <c r="I17" s="74"/>
@@ -5573,7 +5457,7 @@
       <c r="N17" s="74"/>
       <c r="O17" s="74"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -5585,10 +5469,10 @@
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -5603,7 +5487,7 @@
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -5619,7 +5503,7 @@
       <c r="N20" s="74"/>
       <c r="O20" s="74"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -5635,7 +5519,7 @@
       <c r="N21" s="74"/>
       <c r="O21" s="74"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -5651,7 +5535,7 @@
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
@@ -5667,7 +5551,7 @@
       <c r="N23" s="74"/>
       <c r="O23" s="74"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
@@ -5683,7 +5567,7 @@
       <c r="N24" s="74"/>
       <c r="O24" s="74"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -5699,7 +5583,7 @@
       <c r="N25" s="74"/>
       <c r="O25" s="74"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -5715,7 +5599,7 @@
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
@@ -5731,7 +5615,7 @@
       <c r="N27" s="74"/>
       <c r="O27" s="74"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
@@ -5747,7 +5631,7 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="73"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -5763,7 +5647,7 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -5779,7 +5663,7 @@
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -5795,7 +5679,7 @@
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -5811,7 +5695,7 @@
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
       <c r="C33" s="74"/>
       <c r="E33" s="74"/>
@@ -5826,7 +5710,7 @@
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="73"/>
       <c r="E34" s="74"/>
       <c r="H34" s="74"/>
@@ -5838,7 +5722,7 @@
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
       <c r="D35" s="74"/>
@@ -5854,7 +5738,7 @@
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="73"/>
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
@@ -5863,7 +5747,7 @@
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -5874,7 +5758,7 @@
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
       <c r="D37" s="74"/>
@@ -5890,7 +5774,7 @@
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
@@ -5904,7 +5788,7 @@
       <c r="N38" s="74"/>
       <c r="O38" s="74"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="73"/>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -5920,7 +5804,7 @@
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="73"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -5936,7 +5820,7 @@
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="73"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -5952,7 +5836,7 @@
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="73"/>
       <c r="C42" s="74"/>
       <c r="K42" s="74"/>
@@ -5961,7 +5845,7 @@
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
       <c r="K43" s="74"/>
@@ -5970,7 +5854,7 @@
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
       <c r="K44" s="74"/>
@@ -5979,7 +5863,7 @@
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
       <c r="K45" s="74"/>
@@ -5988,7 +5872,7 @@
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="73"/>
       <c r="C46" s="74"/>
       <c r="E46" s="102"/>
@@ -5999,7 +5883,7 @@
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="73"/>
       <c r="C47" s="74"/>
       <c r="E47" s="74"/>
@@ -6010,7 +5894,7 @@
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="73"/>
       <c r="C48" s="74"/>
       <c r="K48" s="74"/>
@@ -6019,7 +5903,7 @@
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="73"/>
       <c r="C49" s="74"/>
       <c r="K49" s="74"/>
@@ -6028,7 +5912,7 @@
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="73"/>
       <c r="C50" s="74"/>
       <c r="J50"/>
@@ -6038,10 +5922,10 @@
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="73"/>
       <c r="C51" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="74"/>
       <c r="K51" s="74"/>
@@ -6050,7 +5934,7 @@
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="73"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
@@ -6060,10 +5944,10 @@
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="73"/>
       <c r="C53" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53" s="74"/>
       <c r="K53" s="74"/>
@@ -6072,7 +5956,7 @@
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="73"/>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
@@ -6082,7 +5966,7 @@
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="73"/>
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
@@ -6092,7 +5976,7 @@
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="73"/>
       <c r="C56" s="74"/>
       <c r="K56" s="74"/>
@@ -6101,7 +5985,7 @@
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="73"/>
       <c r="C57" s="74"/>
       <c r="K57" s="74"/>
@@ -6110,7 +5994,7 @@
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="73"/>
       <c r="C58" s="74"/>
       <c r="K58" s="74"/>
@@ -6119,14 +6003,14 @@
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
       <c r="C59" s="74"/>
       <c r="E59" s="67">
         <v>130000</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K59" s="74"/>
       <c r="L59" s="74"/>
@@ -6134,7 +6018,7 @@
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="73"/>
       <c r="C60" s="74"/>
       <c r="K60" s="74"/>
@@ -6143,14 +6027,14 @@
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="73"/>
       <c r="C61" s="74"/>
       <c r="E61" s="67">
         <v>8.3750000000000005E-2</v>
       </c>
       <c r="F61" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K61" s="74"/>
       <c r="L61" s="74"/>
@@ -6158,14 +6042,14 @@
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="73"/>
       <c r="C62" s="74"/>
       <c r="E62" s="67">
         <v>120.1</v>
       </c>
       <c r="F62" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K62" s="74"/>
       <c r="L62" s="74"/>
@@ -6173,7 +6057,7 @@
       <c r="N62" s="74"/>
       <c r="O62" s="74"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="73"/>
       <c r="C63" s="74"/>
       <c r="K63" s="74"/>
@@ -6182,7 +6066,7 @@
       <c r="N63" s="74"/>
       <c r="O63" s="74"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="73"/>
       <c r="C64" s="74"/>
       <c r="E64" s="67">
@@ -6190,7 +6074,7 @@
         <v>1307588.75</v>
       </c>
       <c r="F64" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64" s="74"/>
       <c r="L64" s="74"/>
@@ -6198,7 +6082,7 @@
       <c r="N64" s="74"/>
       <c r="O64" s="74"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="73"/>
       <c r="C65" s="74"/>
       <c r="E65" s="67">
@@ -6206,7 +6090,7 @@
         <v>261300</v>
       </c>
       <c r="F65" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K65" s="74"/>
       <c r="L65" s="74"/>
@@ -6214,7 +6098,7 @@
       <c r="N65" s="74"/>
       <c r="O65" s="74"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="73"/>
       <c r="C66" s="74"/>
       <c r="E66" s="67">
@@ -6222,10 +6106,10 @@
         <v>363.21909722222222</v>
       </c>
       <c r="F66" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="67" t="s">
         <v>75</v>
-      </c>
-      <c r="G66" s="67" t="s">
-        <v>76</v>
       </c>
       <c r="K66" s="74"/>
       <c r="L66" s="74"/>
@@ -6233,7 +6117,7 @@
       <c r="N66" s="74"/>
       <c r="O66" s="74"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
       <c r="E67" s="67">
@@ -6241,10 +6125,10 @@
         <v>504.47096836419752</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G67" s="67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K67" s="74"/>
       <c r="L67" s="74"/>
@@ -6252,7 +6136,7 @@
       <c r="N67" s="74"/>
       <c r="O67" s="74"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="73"/>
       <c r="C68" s="74"/>
       <c r="K68" s="74"/>
@@ -6261,7 +6145,7 @@
       <c r="N68" s="74"/>
       <c r="O68" s="74"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="73"/>
       <c r="C69" s="74"/>
       <c r="E69" s="67">
@@ -6271,7 +6155,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K69" s="74"/>
       <c r="L69" s="74"/>
@@ -6279,7 +6163,7 @@
       <c r="N69" s="74"/>
       <c r="O69" s="74"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="73"/>
       <c r="C70" s="74"/>
       <c r="K70" s="74"/>
@@ -6288,7 +6172,7 @@
       <c r="N70" s="74"/>
       <c r="O70" s="74"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="73"/>
       <c r="C71" s="74"/>
       <c r="K71" s="74"/>
@@ -6297,7 +6181,7 @@
       <c r="N71" s="74"/>
       <c r="O71" s="74"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="73"/>
       <c r="C72" s="74"/>
       <c r="K72" s="74"/>
@@ -6306,7 +6190,7 @@
       <c r="N72" s="74"/>
       <c r="O72" s="74"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="73"/>
       <c r="C73" s="74"/>
       <c r="K73" s="74"/>
@@ -6315,7 +6199,7 @@
       <c r="N73" s="74"/>
       <c r="O73" s="74"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="73"/>
       <c r="K74" s="74"/>
       <c r="L74" s="74"/>
@@ -6323,7 +6207,7 @@
       <c r="N74" s="74"/>
       <c r="O74" s="74"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="73"/>
       <c r="K75" s="74"/>
       <c r="L75" s="74"/>
@@ -6331,188 +6215,188 @@
       <c r="N75" s="74"/>
       <c r="O75" s="74"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="73"/>
       <c r="N76" s="74"/>
       <c r="O76" s="74"/>
     </row>
-    <row r="77" spans="2:15" ht="16">
+    <row r="77" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="73"/>
       <c r="C77" s="144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="73"/>
       <c r="N78" s="74"/>
       <c r="O78" s="74"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="73"/>
       <c r="C79" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="73"/>
       <c r="E80" s="67">
         <v>7500</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="73"/>
       <c r="N81" s="74"/>
       <c r="O81" s="74"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="73"/>
       <c r="N82" s="74"/>
       <c r="O82" s="74"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="73"/>
       <c r="N83" s="74"/>
       <c r="O83" s="74"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="73"/>
       <c r="N84" s="74"/>
       <c r="O84" s="74"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="73"/>
       <c r="N85" s="74"/>
       <c r="O85" s="74"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="73"/>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="73"/>
       <c r="N87" s="74"/>
       <c r="O87" s="74"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="73"/>
       <c r="N88" s="74"/>
       <c r="O88" s="74"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="73"/>
       <c r="N89" s="74"/>
       <c r="O89" s="74"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="73"/>
       <c r="N90" s="74"/>
       <c r="O90" s="74"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="73"/>
       <c r="N91" s="74"/>
       <c r="O91" s="74"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="73"/>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="73"/>
       <c r="N93" s="74"/>
       <c r="O93" s="74"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="73"/>
       <c r="N94" s="74"/>
       <c r="O94" s="74"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="73"/>
       <c r="N95" s="74"/>
       <c r="O95" s="74"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="73"/>
       <c r="N96" s="74"/>
       <c r="O96" s="74"/>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="73"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="73"/>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="73"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="73"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="73"/>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="73"/>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="73"/>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="73"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="73"/>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="73"/>
       <c r="C106" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
     </row>
-    <row r="107" spans="2:17" ht="16" thickBot="1">
+    <row r="107" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="73"/>
       <c r="C107" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="73"/>
       <c r="C108" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J108" s="167"/>
       <c r="K108" s="168"/>
@@ -6523,15 +6407,15 @@
       <c r="P108" s="168"/>
       <c r="Q108" s="169"/>
     </row>
-    <row r="109" spans="2:17" ht="18">
+    <row r="109" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="B109" s="73"/>
       <c r="C109" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D109" s="74"/>
       <c r="J109" s="170"/>
       <c r="K109" s="171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L109" s="171" t="s">
         <v>8</v>
@@ -6543,14 +6427,14 @@
         <v>7</v>
       </c>
       <c r="O109" s="171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P109" s="171" t="s">
         <v>0</v>
       </c>
       <c r="Q109" s="172"/>
     </row>
-    <row r="110" spans="2:17" ht="19" thickBot="1">
+    <row r="110" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="73"/>
       <c r="C110" s="74"/>
       <c r="J110" s="173"/>
@@ -6562,46 +6446,46 @@
       <c r="P110" s="174"/>
       <c r="Q110" s="175"/>
     </row>
-    <row r="111" spans="2:17" ht="19" thickBot="1">
+    <row r="111" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="73"/>
       <c r="C111" s="67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E111" s="182">
         <f>M111</f>
         <v>1.0980000000000001</v>
       </c>
       <c r="F111" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G111" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J111" s="173"/>
       <c r="K111" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="L111" s="153" t="s">
         <v>56</v>
-      </c>
-      <c r="L111" s="153" t="s">
-        <v>57</v>
       </c>
       <c r="M111" s="176">
         <v>1.0980000000000001</v>
       </c>
       <c r="N111" s="153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O111" s="177">
         <v>42221</v>
       </c>
       <c r="P111" s="178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q111" s="175"/>
     </row>
-    <row r="112" spans="2:17" ht="16" thickBot="1">
+    <row r="112" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="73"/>
       <c r="C112" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J112" s="179"/>
       <c r="K112" s="180"/>
@@ -6612,286 +6496,286 @@
       <c r="P112" s="180"/>
       <c r="Q112" s="181"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="73"/>
       <c r="C113" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="73"/>
       <c r="C114" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F114" s="139"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="73"/>
       <c r="C115" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="73"/>
       <c r="N116" s="74"/>
       <c r="O116" s="74"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="73"/>
       <c r="N117" s="74"/>
       <c r="O117" s="74"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="73"/>
       <c r="N118" s="74"/>
       <c r="O118" s="74"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="73"/>
       <c r="N119" s="74"/>
       <c r="O119" s="74"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="73"/>
       <c r="N120" s="74"/>
       <c r="O120" s="74"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="73"/>
       <c r="C121" s="74"/>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="73"/>
       <c r="C122" s="74"/>
       <c r="N122" s="74"/>
       <c r="O122" s="74"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="73"/>
       <c r="C123" s="74"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="73"/>
       <c r="C124" s="74"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="73"/>
       <c r="C125" s="74"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="73"/>
       <c r="C126" s="74"/>
       <c r="E126" s="140">
         <v>90</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="73"/>
       <c r="E127" s="67">
         <f>E126/100</f>
         <v>0.9</v>
       </c>
       <c r="G127" s="67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="73"/>
       <c r="E128" s="67">
         <f>E80</f>
         <v>7500</v>
       </c>
       <c r="F128" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="73"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="73"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="73"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="73"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="73"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="73"/>
       <c r="E134" s="67">
         <v>40</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G134" s="67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="73"/>
       <c r="E135" s="67">
         <v>3</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G135" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="73"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="73"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="73"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="73"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="73"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="73"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="73"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="73"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="73"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="73"/>
       <c r="E145" s="67">
         <v>10</v>
       </c>
       <c r="F145" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G145" s="67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="73"/>
       <c r="E146" s="67">
         <f>E145/100</f>
         <v>0.1</v>
       </c>
       <c r="G146" s="67" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="73"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="73"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="73"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="73"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="73"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="73"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="73"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="73"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="73"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="73"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="73"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="73"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="73"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="73"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="73"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="73"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="73"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="73"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="73"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="73"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="73"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="73"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="73"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="73"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="73"/>
       <c r="E171" s="67">
         <v>149865595</v>
       </c>
       <c r="F171" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="73"/>
       <c r="E172" s="67">
         <f>E171/E111</f>
@@ -6901,10 +6785,10 @@
         <v>20</v>
       </c>
       <c r="G172" s="67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="73"/>
       <c r="E173" s="67">
         <f>E172*E146</f>
@@ -6914,73 +6798,73 @@
         <v>20</v>
       </c>
       <c r="G173" s="67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="73"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="73"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="73"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B177" s="73"/>
       <c r="E177" s="67">
         <v>7.9952892230000003</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G177" s="67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B178" s="73"/>
       <c r="E178" s="67">
         <f>E177*0.00404686</f>
         <v>3.235581614498978E-2</v>
       </c>
       <c r="F178" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G178" s="67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="166"/>
       <c r="B179" s="183"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="166"/>
       <c r="B180" s="183"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="166"/>
       <c r="B181" s="183"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="166"/>
       <c r="B182" s="183"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="166"/>
       <c r="B183" s="183"/>
       <c r="E183" s="67">
         <v>150280948</v>
       </c>
       <c r="F183" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G183" s="67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="166"/>
       <c r="B184" s="183"/>
       <c r="E184" s="67">
@@ -6991,99 +6875,99 @@
         <v>20</v>
       </c>
       <c r="G184" s="67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="166"/>
       <c r="B185" s="183"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="166"/>
       <c r="B186" s="183"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="166"/>
       <c r="B187" s="183"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="166"/>
       <c r="B188" s="183"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="166"/>
       <c r="B189" s="183"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="166"/>
       <c r="B190" s="183"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="166"/>
       <c r="B191" s="183"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="166"/>
       <c r="B192" s="183"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="166"/>
       <c r="B193" s="183"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="166"/>
       <c r="B194" s="183"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="166"/>
       <c r="B195" s="183"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="166"/>
       <c r="B196" s="183"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="166"/>
       <c r="B197" s="183"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="166"/>
       <c r="B198" s="183"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="166"/>
       <c r="B199" s="183"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="166"/>
       <c r="B200" s="183"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="166"/>
       <c r="B201" s="183"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="166"/>
       <c r="B202" s="183"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="166"/>
       <c r="B203" s="183"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="166"/>
       <c r="B204" s="183"/>
       <c r="E204" s="67">
         <v>2907879</v>
       </c>
       <c r="F204" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G204" s="67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="166"/>
       <c r="B205" s="183"/>
       <c r="E205" s="67">
@@ -7091,125 +6975,125 @@
         <v>2648341.5300546447</v>
       </c>
       <c r="F205" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="166"/>
       <c r="B206" s="183"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="166"/>
       <c r="B207" s="183"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="166"/>
       <c r="B208" s="183"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="166"/>
       <c r="B209" s="183"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="166"/>
       <c r="B210" s="183"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="166"/>
       <c r="B211" s="183"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="166"/>
       <c r="B212" s="183"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="166"/>
       <c r="B213" s="183"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="166"/>
       <c r="B214" s="183"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="166"/>
       <c r="B215" s="183"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="166"/>
       <c r="B216" s="183"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="166"/>
       <c r="B217" s="183"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="166"/>
       <c r="B218" s="183"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="166"/>
       <c r="B219" s="183"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="166"/>
       <c r="B220" s="183"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="166"/>
       <c r="B221" s="183"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="166"/>
       <c r="B222" s="183"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="166"/>
       <c r="B223" s="183"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="166"/>
       <c r="B224" s="183"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="166"/>
       <c r="B225" s="183"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="166"/>
       <c r="B226" s="183"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="166"/>
       <c r="B227" s="183"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="166"/>
       <c r="B228" s="183"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="166"/>
       <c r="B229" s="183"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="166"/>
       <c r="B230" s="183"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="166"/>
       <c r="B231" s="183"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="166"/>
       <c r="B232" s="183"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="166"/>
       <c r="B233" s="183"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="166"/>
       <c r="B234" s="183"/>
       <c r="E234" s="67">
@@ -7217,13 +7101,13 @@
         <v>2283588</v>
       </c>
       <c r="F234" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G234" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="166"/>
       <c r="B235" s="183"/>
       <c r="E235" s="67">
@@ -7231,28 +7115,28 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="F235" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G235" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="166"/>
       <c r="B236" s="183"/>
       <c r="G236" s="67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="166"/>
       <c r="B237" s="183"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="166"/>
       <c r="B238" s="183"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="166"/>
       <c r="B239" s="183"/>
       <c r="E239" s="67">
@@ -7260,13 +7144,13 @@
         <v>9806915625</v>
       </c>
       <c r="F239" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G239" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="166"/>
       <c r="B240" s="183"/>
       <c r="E240" s="67">
@@ -7274,13 +7158,13 @@
         <v>2.120718247541034E-4</v>
       </c>
       <c r="F240" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G240" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="166"/>
       <c r="B241" s="183"/>
       <c r="E241" s="67">
@@ -7288,149 +7172,149 @@
         <v>277.30273224043714</v>
       </c>
       <c r="F241" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G241" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="166"/>
       <c r="B242" s="183"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="166"/>
       <c r="B243" s="183"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="166"/>
       <c r="B244" s="183"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="166"/>
       <c r="B245" s="183"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="166"/>
       <c r="B246" s="183"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="166"/>
       <c r="B247" s="183"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="166"/>
       <c r="B248" s="183"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="166"/>
       <c r="B249" s="183"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="166"/>
       <c r="B250" s="183"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="166"/>
       <c r="B251" s="183"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="166"/>
       <c r="B252" s="183"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="166"/>
       <c r="B253" s="183"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="166"/>
       <c r="B254" s="183"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="166"/>
       <c r="B255" s="183"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="166"/>
       <c r="B256" s="183"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="166"/>
       <c r="B257" s="183"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="166"/>
       <c r="B258" s="183"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="166"/>
       <c r="B259" s="183"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="166"/>
       <c r="B260" s="183"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="166"/>
       <c r="B261" s="183"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="166"/>
       <c r="B262" s="183"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="166"/>
       <c r="B263" s="183"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="166"/>
       <c r="B264" s="183"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="166"/>
       <c r="B265" s="183"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="166"/>
       <c r="B266" s="183"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="166"/>
       <c r="B267" s="183"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="166"/>
       <c r="B268" s="183"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="166"/>
       <c r="B269" s="183"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="166"/>
       <c r="B270" s="183"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="166"/>
       <c r="B271" s="183"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="166"/>
       <c r="B272" s="183"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="166"/>
       <c r="B273" s="183"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="166"/>
       <c r="B274" s="183"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="166"/>
       <c r="B275" s="183"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="166"/>
       <c r="B276" s="183"/>
     </row>
@@ -7438,10 +7322,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorisberkhout/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="186">
   <si>
     <t>Source</t>
   </si>
@@ -661,6 +661,30 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>output.useable_heat</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Based on expert data</t>
+  </si>
+  <si>
+    <t>Expert data</t>
+  </si>
+  <si>
+    <t>Energy demand for Air separation and NH3 synthesis</t>
+  </si>
+  <si>
+    <t>GJ/tonne NH3</t>
+  </si>
+  <si>
+    <t>Energy demand for SMR</t>
+  </si>
+  <si>
+    <t>Assumed that the air separation and NH3 synthesis is powered by waste heat from SMR</t>
+  </si>
 </sst>
 </file>
 
@@ -675,12 +699,19 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -939,6 +970,13 @@
       <color rgb="FF000000"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1236,738 +1274,748 @@
   </borders>
   <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="443">
@@ -3221,10 +3269,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3396,61 +3444,60 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="1" max="2" width="3.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="187"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="188"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="195"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="191"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="193"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="198"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3545,102 +3592,109 @@
       <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="184" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>74</v>
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="185" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="E13" s="107">
         <f>'Research data'!H8</f>
-        <v>504.47096836419752</v>
-      </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="117"/>
-      <c r="K13" s="36"/>
+        <v>0.12285714285714285</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="114"/>
       <c r="B14" s="115"/>
-      <c r="C14" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="23"/>
+      <c r="C14" s="184" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="E14" s="107">
-        <f>'Research data'!H10</f>
-        <v>7500</v>
+        <f>'Research data'!H9</f>
+        <v>504.47096836419752</v>
       </c>
       <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="184" t="s">
+        <v>175</v>
+      </c>
       <c r="H14" s="110"/>
-      <c r="I14" s="154" t="s">
-        <v>154</v>
+      <c r="I14" s="113" t="s">
+        <v>112</v>
       </c>
       <c r="J14" s="117"/>
       <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
       <c r="B15" s="115"/>
-      <c r="C15" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
-      </c>
+      <c r="C15" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="107">
-        <f>'Research data'!H9</f>
-        <v>0.9</v>
+        <f>'Research data'!H11</f>
+        <v>7500</v>
       </c>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
-      <c r="I15" s="113" t="s">
-        <v>149</v>
+      <c r="I15" s="154" t="s">
+        <v>154</v>
       </c>
       <c r="J15" s="117"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115"/>
       <c r="C16" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="118">
-        <v>0</v>
+      <c r="E16" s="107">
+        <f>'Research data'!H10</f>
+        <v>0.9</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
-      <c r="I16" s="113"/>
+      <c r="I16" s="113" t="s">
+        <v>149</v>
+      </c>
       <c r="J16" s="117"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="94"/>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="115"/>
+      <c r="C17" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="118">
+        <v>0</v>
+      </c>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="117"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
-      <c r="C18" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -3651,94 +3705,87 @@
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
-      <c r="C19" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="41">
-        <f>'Research data'!H17</f>
-        <v>160000000</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="113" t="s">
-        <v>112</v>
-      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E20" s="41">
-        <f>'Research data'!H19</f>
-        <v>2079770.4918032784</v>
+        <f>'Research data'!H18</f>
+        <v>160000000</v>
       </c>
       <c r="F20" s="39"/>
-      <c r="G20" s="156" t="s">
-        <v>164</v>
+      <c r="G20" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="94"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="41">
+        <f>'Research data'!H20</f>
+        <v>2079770.4918032784</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="94"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="146"/>
-      <c r="C21" s="155" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="107">
-        <f>'Research data'!H21</f>
-        <v>277.30273224043714</v>
-      </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="147" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="J21" s="151"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="146"/>
       <c r="C22" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="148"/>
+        <v>158</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>147</v>
+      </c>
       <c r="E22" s="107">
         <f>'Research data'!H22</f>
-        <v>0</v>
+        <v>277.30273224043714</v>
       </c>
       <c r="F22" s="149"/>
-      <c r="G22" s="155" t="s">
-        <v>160</v>
+      <c r="G22" s="147" t="s">
+        <v>148</v>
       </c>
       <c r="H22" s="149"/>
-      <c r="I22" s="164" t="s">
-        <v>172</v>
+      <c r="I22" s="150" t="s">
+        <v>149</v>
       </c>
       <c r="J22" s="151"/>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="148"/>
       <c r="E23" s="107">
@@ -3747,7 +3794,7 @@
       </c>
       <c r="F23" s="149"/>
       <c r="G23" s="155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H23" s="149"/>
       <c r="I23" s="164" t="s">
@@ -3757,146 +3804,143 @@
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
-      <c r="C24" s="165" t="s">
-        <v>173</v>
+      <c r="C24" s="155" t="s">
+        <v>157</v>
       </c>
       <c r="D24" s="148"/>
       <c r="E24" s="107">
         <f>'Research data'!H24</f>
-        <v>13648961.293260474</v>
+        <v>0</v>
       </c>
       <c r="F24" s="149"/>
       <c r="G24" s="155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H24" s="149"/>
-      <c r="I24" s="150" t="s">
-        <v>149</v>
+      <c r="I24" s="164" t="s">
+        <v>172</v>
       </c>
       <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="146"/>
-      <c r="C25" s="155" t="s">
-        <v>159</v>
+      <c r="C25" s="165" t="s">
+        <v>173</v>
       </c>
       <c r="D25" s="148"/>
       <c r="E25" s="107">
         <f>'Research data'!H25</f>
+        <v>13648961.293260474</v>
+      </c>
+      <c r="F25" s="149"/>
+      <c r="G25" s="155" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="149"/>
+      <c r="I25" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="151"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="146"/>
+      <c r="C26" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="148"/>
+      <c r="E26" s="107">
+        <f>'Research data'!H26</f>
         <v>0</v>
       </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="156" t="s">
+      <c r="F26" s="149"/>
+      <c r="G26" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="164" t="s">
+      <c r="H26" s="149"/>
+      <c r="I26" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="J25" s="151"/>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="118">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="117"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="114"/>
       <c r="B27" s="115"/>
       <c r="C27" s="110" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="118">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
+      <c r="G27" s="110" t="s">
+        <v>86</v>
+      </c>
       <c r="H27" s="110"/>
       <c r="I27" s="113"/>
       <c r="J27" s="117"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114"/>
       <c r="B28" s="115"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="121"/>
+      <c r="C28" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="118">
+        <v>1</v>
+      </c>
       <c r="F28" s="110"/>
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
-      <c r="I28" s="119"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="117"/>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="114"/>
       <c r="B29" s="115"/>
-      <c r="C29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="95"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="121"/>
-      <c r="F29" s="119"/>
-      <c r="H29" s="119"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="119"/>
       <c r="J29" s="117"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114"/>
       <c r="B30" s="115"/>
-      <c r="C30" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="118">
-        <f>'Research data'!H29</f>
-        <v>40</v>
-      </c>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="110"/>
-      <c r="I30" s="113" t="s">
-        <v>131</v>
-      </c>
+      <c r="C30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="95"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="117"/>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="115"/>
       <c r="C31" s="110" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="118">
         <f>'Research data'!H30</f>
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F31" s="110"/>
       <c r="G31" s="110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="113" t="s">
@@ -3908,18 +3952,18 @@
       <c r="A32" s="114"/>
       <c r="B32" s="115"/>
       <c r="C32" s="110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="138">
+        <v>1</v>
+      </c>
+      <c r="E32" s="118">
         <f>'Research data'!H31</f>
-        <v>3.235581614498978E-2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="113" t="s">
@@ -3931,43 +3975,54 @@
       <c r="A33" s="114"/>
       <c r="B33" s="115"/>
       <c r="C33" s="110" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="118">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="E33" s="138">
+        <f>'Research data'!H32</f>
+        <v>3.235581614498978E-2</v>
       </c>
       <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
+      <c r="G33" s="110" t="s">
+        <v>99</v>
+      </c>
       <c r="H33" s="110"/>
-      <c r="I33" s="113"/>
+      <c r="I33" s="113" t="s">
+        <v>131</v>
+      </c>
       <c r="J33" s="117"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="115"/>
+      <c r="C34" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="118">
+        <v>0</v>
+      </c>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="117"/>
+    </row>
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="114"/>
@@ -3996,6 +4051,8 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="114"/>
       <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="114"/>
       <c r="F38" s="114"/>
       <c r="G38" s="114"/>
@@ -4006,8 +4063,6 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="114"/>
       <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
       <c r="E39" s="114"/>
       <c r="F39" s="114"/>
       <c r="G39" s="114"/>
@@ -4053,9 +4108,21 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="114"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4071,40 +4138,42 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:U37"/>
+  <dimension ref="A2:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="42" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="42" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="42" customWidth="1"/>
-    <col min="19" max="19" width="11" style="42" customWidth="1"/>
-    <col min="20" max="20" width="2.42578125" style="42" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" style="42" customWidth="1"/>
-    <col min="22" max="16384" width="10.7109375" style="42"/>
+    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" style="42" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="42" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="42" customWidth="1"/>
+    <col min="20" max="20" width="23.5" style="42" customWidth="1"/>
+    <col min="21" max="21" width="11" style="42" customWidth="1"/>
+    <col min="22" max="22" width="2.5" style="42" customWidth="1"/>
+    <col min="23" max="23" width="22.5" style="42" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4125,8 +4194,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
-    </row>
-    <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+    </row>
+    <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="91" t="s">
         <v>19</v>
@@ -4158,10 +4229,14 @@
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4175,9 +4250,9 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="49"/>
-      <c r="R5" s="55"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="55"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4196,9 +4271,11 @@
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
-      <c r="R6" s="53"/>
-    </row>
-    <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="53"/>
+    </row>
+    <row r="7" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="112" t="s">
         <v>64</v>
@@ -4225,129 +4302,144 @@
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
-      <c r="R7" s="53"/>
-    </row>
-    <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="53"/>
+    </row>
+    <row r="8" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
-      <c r="C8" s="184" t="s">
-        <v>174</v>
+      <c r="C8" s="199" t="s">
+        <v>178</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="126" t="s">
-        <v>74</v>
+      <c r="F8" s="186" t="s">
+        <v>2</v>
       </c>
       <c r="G8" s="92"/>
       <c r="H8" s="106">
-        <f>L8</f>
-        <v>504.47096836419752</v>
+        <f>R8</f>
+        <v>0.12285714285714285</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="111"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="106">
-        <f>Notes!E67</f>
-        <v>504.47096836419752</v>
-      </c>
+      <c r="L8" s="54"/>
       <c r="M8" s="48"/>
       <c r="N8" s="54"/>
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="46"/>
-      <c r="R8" s="109"/>
-    </row>
-    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="110" t="s">
-        <v>79</v>
+      <c r="R8" s="187">
+        <f>Notes!E268</f>
+        <v>0.12285714285714285</v>
+      </c>
+      <c r="S8" s="46"/>
+      <c r="T8" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+      <c r="C9" s="184" t="s">
+        <v>174</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="23" t="s">
-        <v>2</v>
+      <c r="F9" s="126" t="s">
+        <v>74</v>
       </c>
       <c r="G9" s="92"/>
-      <c r="H9" s="116">
-        <f>N9</f>
-        <v>0.9</v>
-      </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="132">
-        <f>Notes!E127</f>
-        <v>0.9</v>
-      </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="114"/>
-    </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="106">
+        <f>L9</f>
+        <v>504.47096836419752</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="106">
+        <f>Notes!E67</f>
+        <v>504.47096836419752</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="109"/>
+    </row>
+    <row r="10" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="114"/>
       <c r="B10" s="115"/>
-      <c r="C10" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
+      <c r="C10" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="23" t="s">
-        <v>153</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G10" s="92"/>
       <c r="H10" s="116">
-        <f>P10</f>
-        <v>7500</v>
+        <f>N10</f>
+        <v>0.9</v>
       </c>
       <c r="I10" s="110"/>
       <c r="J10" s="114"/>
       <c r="K10" s="114"/>
       <c r="L10" s="114"/>
       <c r="M10" s="114"/>
-      <c r="N10" s="145"/>
+      <c r="N10" s="132">
+        <f>Notes!E127</f>
+        <v>0.9</v>
+      </c>
       <c r="O10" s="114"/>
-      <c r="P10" s="132">
-        <f>Notes!E128</f>
-        <v>7500</v>
-      </c>
+      <c r="P10" s="114"/>
       <c r="Q10" s="114"/>
-      <c r="R10" s="153"/>
+      <c r="R10" s="114"/>
       <c r="S10" s="114"/>
-    </row>
-    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="153"/>
+      <c r="U10" s="114"/>
+    </row>
+    <row r="11" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="114"/>
       <c r="B11" s="115"/>
-      <c r="C11" s="141" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="113">
-        <v>0.1</v>
+        <v>153</v>
+      </c>
+      <c r="H11" s="116">
+        <f>P11</f>
+        <v>7500</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="114"/>
       <c r="K11" s="114"/>
       <c r="L11" s="114"/>
       <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
+      <c r="N11" s="145"/>
       <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="153"/>
+      <c r="P11" s="132">
+        <f>Notes!E128</f>
+        <v>7500</v>
+      </c>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
       <c r="S11" s="114"/>
-    </row>
-    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="153"/>
+      <c r="U11" s="114"/>
+    </row>
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="114"/>
       <c r="B12" s="115"/>
       <c r="C12" s="141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -4355,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="113">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="114"/>
@@ -4366,226 +4458,229 @@
       <c r="O12" s="114"/>
       <c r="P12" s="114"/>
       <c r="Q12" s="114"/>
-      <c r="R12" s="153"/>
+      <c r="R12" s="114"/>
       <c r="S12" s="114"/>
-    </row>
-    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="153"/>
+      <c r="U12" s="114"/>
+    </row>
+    <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="114"/>
       <c r="B13" s="115"/>
-      <c r="C13" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="118">
+      <c r="H13" s="113">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="110"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="114"/>
+    </row>
+    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="118">
         <v>0</v>
       </c>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="114"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="153"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="128"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="114"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="45"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
-      <c r="R15" s="55"/>
-    </row>
-    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="153"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="114"/>
       <c r="B16" s="115"/>
-      <c r="C16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="F16" s="34"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="128"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="109"/>
-    </row>
-    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="46"/>
+      <c r="T16" s="55"/>
+    </row>
+    <row r="17" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="114"/>
       <c r="B17" s="115"/>
-      <c r="C17" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="127">
-        <f>L17</f>
-        <v>160000000</v>
-      </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="132">
-        <f>Notes!E69</f>
-        <v>160000000</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="109"/>
-    </row>
-    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="128"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="109"/>
+    </row>
+    <row r="18" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="114"/>
       <c r="B18" s="115"/>
       <c r="C18" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="133" t="s">
-        <v>51</v>
+        <v>101</v>
+      </c>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="131" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="127">
-        <f>N18</f>
-        <v>2648341.5300546447</v>
-      </c>
+        <f>L18</f>
+        <v>160000000</v>
+      </c>
+      <c r="I18" s="128"/>
       <c r="J18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="132">
-        <f>Notes!E205</f>
-        <v>2648341.5300546447</v>
-      </c>
-      <c r="R18" s="136" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="128"/>
+      <c r="L18" s="132">
+        <f>Notes!E69</f>
+        <v>160000000</v>
+      </c>
+      <c r="S18" s="48"/>
+      <c r="T18" s="109"/>
+    </row>
+    <row r="19" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114"/>
       <c r="B19" s="115"/>
       <c r="C19" s="131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="142">
+        <v>51</v>
+      </c>
+      <c r="H19" s="127">
         <f>N19</f>
-        <v>2079770.4918032784</v>
+        <v>2648341.5300546447</v>
       </c>
       <c r="J19" s="128"/>
       <c r="L19" s="128"/>
       <c r="M19" s="128"/>
       <c r="N19" s="132">
-        <f>Notes!E235</f>
-        <v>2079770.4918032784</v>
-      </c>
-      <c r="R19" s="136" t="s">
+        <f>Notes!E205</f>
+        <v>2648341.5300546447</v>
+      </c>
+      <c r="T19" s="136" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114"/>
       <c r="B20" s="115"/>
       <c r="C20" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="143">
+      <c r="F20" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="142">
         <f>N20</f>
-        <v>2.120718247541034E-4</v>
+        <v>2079770.4918032784</v>
       </c>
       <c r="J20" s="128"/>
       <c r="L20" s="128"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="142">
-        <f>Notes!E240</f>
-        <v>2.120718247541034E-4</v>
-      </c>
-      <c r="R20" s="136" t="s">
+      <c r="M20" s="128"/>
+      <c r="N20" s="132">
+        <f>Notes!E235</f>
+        <v>2079770.4918032784</v>
+      </c>
+      <c r="T20" s="136" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114"/>
       <c r="B21" s="115"/>
       <c r="C21" s="131" t="s">
         <v>103</v>
       </c>
       <c r="F21" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="143">
+        <f>N21</f>
+        <v>2.120718247541034E-4</v>
+      </c>
+      <c r="J21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="142">
+        <f>Notes!E240</f>
+        <v>2.120718247541034E-4</v>
+      </c>
+      <c r="T21" s="136" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="142">
+      <c r="H22" s="142">
         <f>Notes!E241</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="J21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="142">
+      <c r="J22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="142">
         <f>Notes!E241</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="R21" s="136" t="s">
+      <c r="T22" s="136" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="158"/>
-      <c r="H22" s="160">
-        <f>N22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="160">
-        <v>0</v>
-      </c>
-      <c r="O22" s="162"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="158"/>
       <c r="B23" s="159"/>
       <c r="C23" s="157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
@@ -4602,243 +4697,280 @@
       <c r="K23" s="161"/>
       <c r="M23" s="158"/>
       <c r="N23" s="160">
+        <v>0</v>
+      </c>
+      <c r="O23" s="162"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="162" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="158"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="158"/>
+      <c r="H24" s="160">
+        <f>N24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="160">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="162" t="s">
+      <c r="O24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="162" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="157" t="s">
+    <row r="25" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="157" t="s">
+      <c r="F25" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="132">
-        <f>N24</f>
+      <c r="H25" s="132">
+        <f>N25</f>
         <v>13648961.293260474</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="132">
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="132">
         <f>Notes!E173</f>
         <v>13648961.293260474</v>
       </c>
-      <c r="R24" s="136"/>
-    </row>
-    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="163" t="s">
+      <c r="T25" s="136"/>
+    </row>
+    <row r="26" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="158"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="157" t="s">
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="158"/>
-      <c r="H25" s="160">
-        <f>N25</f>
+      <c r="G26" s="158"/>
+      <c r="H26" s="160">
+        <f>N26</f>
         <v>0</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="160">
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="160">
         <v>0</v>
       </c>
-      <c r="O25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="153" t="s">
+      <c r="O26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="153" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R26" s="53"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="45"/>
-      <c r="R27" s="109"/>
-    </row>
-    <row r="28" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="153"/>
-    </row>
-    <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T27" s="53"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="45"/>
+      <c r="T28" s="109"/>
+    </row>
+    <row r="29" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="114"/>
       <c r="B29" s="115"/>
-      <c r="C29" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="127">
-        <f>N29</f>
-        <v>40</v>
-      </c>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="132">
-        <f>Notes!E134</f>
-        <v>40</v>
-      </c>
+      <c r="C29" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="46"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="46"/>
-      <c r="R29" s="153"/>
-    </row>
-    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="153"/>
+    </row>
+    <row r="30" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114"/>
       <c r="B30" s="115"/>
-      <c r="C30" s="112" t="s">
-        <v>100</v>
+      <c r="C30" s="130" t="s">
+        <v>3</v>
       </c>
       <c r="F30" s="126" t="s">
         <v>1</v>
       </c>
       <c r="H30" s="127">
-        <f t="shared" ref="H30" si="0">N30</f>
-        <v>3</v>
-      </c>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
+        <f>N30</f>
+        <v>40</v>
+      </c>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
       <c r="M30" s="129"/>
       <c r="N30" s="132">
-        <f>Notes!E135</f>
-        <v>3</v>
+        <f>Notes!E134</f>
+        <v>40</v>
       </c>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
-      <c r="R30" s="153"/>
-    </row>
-    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="153"/>
+    </row>
+    <row r="31" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="115"/>
-      <c r="C31" s="125" t="s">
-        <v>99</v>
+      <c r="C31" s="112" t="s">
+        <v>100</v>
       </c>
       <c r="F31" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="137">
-        <f>N31</f>
-        <v>3.235581614498978E-2</v>
+        <v>1</v>
+      </c>
+      <c r="H31" s="127">
+        <f t="shared" ref="H31" si="0">N31</f>
+        <v>3</v>
       </c>
       <c r="I31" s="129"/>
       <c r="J31" s="129"/>
       <c r="K31" s="129"/>
       <c r="L31" s="129"/>
-      <c r="M31" s="11"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="132">
-        <f>Notes!E178</f>
-        <v>3.235581614498978E-2</v>
+        <f>Notes!E135</f>
+        <v>3</v>
       </c>
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
-      <c r="R31" s="136" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="153"/>
+    </row>
+    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114"/>
       <c r="B32" s="115"/>
-      <c r="C32" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="H32" s="52">
-        <v>0</v>
-      </c>
-      <c r="R32" s="109"/>
-    </row>
-    <row r="33" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="137">
+        <f>N32</f>
+        <v>3.235581614498978E-2</v>
+      </c>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="132">
+        <f>Notes!E178</f>
+        <v>3.235581614498978E-2</v>
+      </c>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="136" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="114"/>
       <c r="B33" s="115"/>
-      <c r="C33" s="141" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="118">
-        <v>442800</v>
-      </c>
-      <c r="R33" s="153"/>
-    </row>
-    <row r="34" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="H33" s="52">
+        <v>0</v>
+      </c>
+      <c r="T33" s="109"/>
+    </row>
+    <row r="34" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
       <c r="B34" s="115"/>
       <c r="C34" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34" s="118">
-        <v>0</v>
-      </c>
-      <c r="R34" s="153"/>
-    </row>
-    <row r="35" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>442800</v>
+      </c>
+      <c r="T34" s="153"/>
+    </row>
+    <row r="35" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="118">
-        <v>2835000</v>
-      </c>
-      <c r="R35" s="153"/>
-    </row>
-    <row r="36" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T35" s="153"/>
+    </row>
+    <row r="36" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="114"/>
       <c r="B36" s="115"/>
       <c r="C36" s="141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="118">
-        <v>534600</v>
-      </c>
-      <c r="R36" s="153"/>
-    </row>
-    <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2835000</v>
+      </c>
+      <c r="T36" s="153"/>
+    </row>
+    <row r="37" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="114"/>
       <c r="B37" s="115"/>
       <c r="C37" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="118">
+        <v>534600</v>
+      </c>
+      <c r="T37" s="153"/>
+    </row>
+    <row r="38" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="118">
+      <c r="H38" s="118">
         <v>354600</v>
       </c>
-      <c r="R37" s="153"/>
+      <c r="T38" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4853,20 +4985,20 @@
   </sheetPr>
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="57" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="62" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="62" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="57"/>
+    <col min="1" max="1" width="3.5" style="57" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5173,7 +5305,7 @@
       <c r="J22" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5186,21 +5318,22 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="67" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="67" customWidth="1"/>
     <col min="4" max="4" width="4" style="67" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="67" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="67"/>
-    <col min="14" max="14" width="15.7109375" style="67" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="67"/>
-    <col min="16" max="16" width="54.7109375" style="67" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="67"/>
+    <col min="5" max="5" width="13.1640625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="67" customWidth="1"/>
+    <col min="7" max="13" width="10.83203125" style="67"/>
+    <col min="14" max="14" width="15.6640625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="67"/>
+    <col min="16" max="16" width="54.6640625" style="67" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7238,69 +7371,100 @@
       <c r="A256" s="166"/>
       <c r="B256" s="183"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="166"/>
       <c r="B257" s="183"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="166"/>
       <c r="B258" s="183"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="166"/>
       <c r="B259" s="183"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="166"/>
       <c r="B260" s="183"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="166"/>
       <c r="B261" s="183"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="166"/>
       <c r="B262" s="183"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="166"/>
       <c r="B263" s="183"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="166"/>
       <c r="B264" s="183"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="166"/>
       <c r="B265" s="183"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="166"/>
       <c r="B266" s="183"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="166"/>
       <c r="B267" s="183"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267" s="189" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="166"/>
       <c r="B268" s="183"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E268" s="67">
+        <f>O269/O270</f>
+        <v>0.12285714285714285</v>
+      </c>
+      <c r="G268" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="166"/>
       <c r="B269" s="183"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K269" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="O269" s="67">
+        <v>4.3</v>
+      </c>
+      <c r="P269" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="166"/>
       <c r="B270" s="183"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K270" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="O270" s="67">
+        <v>35</v>
+      </c>
+      <c r="P270" s="67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="166"/>
       <c r="B271" s="183"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="166"/>
       <c r="B272" s="183"/>
+      <c r="K272" s="67" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="166"/>

--- a/nodes_source_analyses/industry/industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_fertilizers_steam_methane_reformer_hydrogen.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF29FC-5D01-6F4C-A648-D438A7657E75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA89BA3-A2D0-DB43-B4DF-33DAA4E06A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -53,10 +53,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
   <si>
     <t>Source</t>
   </si>
@@ -687,6 +693,9 @@
   <si>
     <t>FIxed O&amp;M / year</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -696,10 +705,10 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -962,6 +971,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1705,7 +1720,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1879,10 +1894,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1958,6 +1973,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1985,12 +2006,7 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3295,12 +3311,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1">
@@ -3474,58 +3490,58 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="2" width="3.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="186" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="187"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="192"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="194"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3900,14 +3916,16 @@
         <v>75</v>
       </c>
       <c r="E27" s="100">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="92" t="s">
         <v>76</v>
       </c>
       <c r="H27" s="92"/>
-      <c r="I27" s="95"/>
+      <c r="I27" s="195" t="s">
+        <v>183</v>
+      </c>
       <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1">
@@ -4175,30 +4193,30 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="42" customWidth="1"/>
     <col min="10" max="10" width="33" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="42" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="42" customWidth="1"/>
     <col min="19" max="19" width="11" style="42" customWidth="1"/>
-    <col min="20" max="20" width="2.5" style="42" customWidth="1"/>
-    <col min="21" max="21" width="22.5" style="42" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="42"/>
+    <col min="20" max="20" width="2.42578125" style="42" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="42" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="17" thickBot="1"/>
@@ -4591,7 +4609,7 @@
       <c r="F19" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="193">
+      <c r="H19" s="184">
         <f>Notes!E33</f>
         <v>105435.80131208997</v>
       </c>
@@ -4614,8 +4632,8 @@
       <c r="F20" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="194">
-        <f>N20</f>
+      <c r="H20" s="185">
+        <f t="shared" ref="H20:H26" si="0">N20</f>
         <v>0</v>
       </c>
       <c r="J20" s="110"/>
@@ -4637,8 +4655,8 @@
       <c r="F21" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="194">
-        <f>N21</f>
+      <c r="H21" s="185">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="110"/>
@@ -4660,8 +4678,8 @@
       <c r="F22" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="194">
-        <f>N22</f>
+      <c r="H22" s="185">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="111"/>
@@ -4687,7 +4705,7 @@
       </c>
       <c r="G23" s="136"/>
       <c r="H23" s="138">
-        <f>N23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="139"/>
@@ -4716,7 +4734,7 @@
       </c>
       <c r="G24" s="136"/>
       <c r="H24" s="138">
-        <f>N24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="139"/>
@@ -4743,7 +4761,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="114">
-        <f>N25</f>
+        <f t="shared" si="0"/>
         <v>12768645.735707592</v>
       </c>
       <c r="I25" s="102"/>
@@ -4770,7 +4788,7 @@
       </c>
       <c r="G26" s="136"/>
       <c r="H26" s="138">
-        <f>N26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="139"/>
@@ -4848,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="109">
-        <f t="shared" ref="H31" si="0">N31</f>
+        <f t="shared" ref="H31" si="1">N31</f>
         <v>3</v>
       </c>
       <c r="I31" s="111"/>
@@ -4974,22 +4992,22 @@
   </sheetPr>
   <dimension ref="A1:Q263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="55" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="55" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" customWidth="1"/>
     <col min="4" max="4" width="4" style="55" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="55" customWidth="1"/>
-    <col min="7" max="13" width="10.6640625" style="55"/>
-    <col min="14" max="14" width="15.6640625" style="55" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="55"/>
-    <col min="16" max="16" width="54.6640625" style="55" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="55"/>
+    <col min="5" max="5" width="13.140625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="55" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="55"/>
+    <col min="14" max="14" width="15.7109375" style="55" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="55"/>
+    <col min="16" max="16" width="54.7109375" style="55" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
@@ -6962,18 +6980,18 @@
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="171" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="171" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="171" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="171" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="171" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="171" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="172" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="172" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="171" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="171"/>
+    <col min="1" max="1" width="3.42578125" style="171" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="171" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="171" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="171" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="171" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="171" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="172" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="172" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="171" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="171"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
